--- a/results/AdaBoostClassifier_ElasticNet_randomsearch-estimator_df.xlsx
+++ b/results/AdaBoostClassifier_ElasticNet_randomsearch-estimator_df.xlsx
@@ -506,7 +506,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e38114f0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b614fa6d0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
                                                                  l1_ratio=0.01,
@@ -519,7 +519,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e3536b20&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b613577c0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5664170229495307</v>
+        <v>0.6380968573760335</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.626812206837382</v>
+        <v>0.6112767687720249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4534180278281911</v>
+        <v>0.4554673721340389</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 0 0 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,13 @@
                                                    'Corrective_V', 'Delta_AE',
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta...
+                                                   'Delta_OnAxis', 'Delta_PV',
                                                    'Delta_RT', 'FullPath_HR',
                                                    'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e3811d60&gt;),
+                ('selector', None),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
                                                                  l1_ratio=0.001,
@@ -595,12 +594,12 @@
                                                                  penalty='elasticnet',
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    random_state=42))])</t>
+                                    n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98e0cfeeb0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -610,11 +609,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5996937390692944</v>
+        <v>0.5732536407371513</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -625,19 +624,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6480667423845083</v>
+        <v>0.6233937446395733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4611992945326279</v>
+        <v>0.3334914611005693</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1]</t>
+          <t>[0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -667,20 +666,20 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f90a81f5eb0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b61357a90&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                 l1_ratio=0.01,
+                                                                 l1_ratio=0.001,
                                                                  max_iter=1000,
                                                                  penalty='elasticnet',
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    n_estimators=100, random_state=42))])</t>
+                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98b10d9160&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b6163a0a0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -690,11 +689,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 100, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5236845795803934</v>
+        <v>0.6150516029863857</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -705,19 +704,19 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6336476579829508</v>
+        <v>0.6099074018035465</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0 0 0 0 0 1 1 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0]</t>
+          <t>[1 0 0 1 1 1 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -747,7 +746,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e135bfa0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b6163a1f0&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
                                                                  l1_ratio=0.01,
@@ -755,12 +754,12 @@
                                                                  penalty='elasticnet',
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    n_estimators=5, random_state=42))])</t>
+                                    n_estimators=10, random_state=42))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f98640e69d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5ae82edc10&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -770,11 +769,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5651278150813754</v>
+        <v>0.5808341423387191</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -782,22 +781,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5505824372759857</v>
+        <v>0.5588326722920717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5595238095238095</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1]</t>
+          <t>[1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -822,12 +821,12 @@
                                                    'Delta_Fullpath', 'Delta_MT',
                                                    'Delta_OffAxis',
                                                    'Delta_OnAxis', 'Delta...
+                                                   'FullPath_V', 'MT_HR',
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5b616be820&gt;),
                 ('model',
                  AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
                                                                  l1_ratio=0.01,
@@ -835,12 +834,12 @@
                                                                  penalty='elasticnet',
                                                                  random_state=42,
                                                                  solver='saga'),
-                                    n_estimators=300, random_state=42))])</t>
+                                    n_estimators=100, random_state=42))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5b619783a0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('MinMaxScaler', MinMaxScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -850,11 +849,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 300, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 100, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.562975694158222</v>
+        <v>0.5146467438650101</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -865,19 +864,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6152769324406574</v>
+        <v>0.6099074018035465</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4611594202898551</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 1]</t>
+          <t>[0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 1 1]</t>
         </is>
       </c>
     </row>
